--- a/fuentes/contenidos/grado08/guion08/Solicitudes_graficas_MA_08_08_CO/SolicitudGrafica_ MA_08_08_REC140.xlsx
+++ b/fuentes/contenidos/grado08/guion08/Solicitudes_graficas_MA_08_08_CO/SolicitudGrafica_ MA_08_08_REC140.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Desktop\MA_08_08_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarJosué\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion08\Solicitudes_graficas_MA_08_08_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="196">
   <si>
     <t>Fecha:</t>
   </si>
@@ -601,9 +601,6 @@
     <t>Josué Malagón</t>
   </si>
   <si>
-    <t>MA_08_08_CO_REC_140</t>
-  </si>
-  <si>
     <t>Demuestra un teorema</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>Las letras minúsculas son las medidas de los lados, por favor agregar cotas, tambien un sombreado a los ángulos</t>
+  </si>
+  <si>
+    <t>MA_08_08_CO_REC140</t>
   </si>
 </sst>
 </file>
@@ -2801,9 +2801,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:D4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2912,7 +2912,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" s="87"/>
       <c r="E4" s="5"/>
@@ -3001,7 +3001,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="73" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -3104,29 +3104,29 @@
         <v>Recurso F13</v>
       </c>
       <c r="D10" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="13" t="str">
+        <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>MA_08_08_CO_REC140_IMG01n.jpg</v>
+      </c>
+      <c r="G10" s="13" t="str">
+        <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>240 x 185 px</v>
+      </c>
+      <c r="H10" s="13" t="str">
+        <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>MA_08_08_CO_REC140_IMG01a.jpg</v>
+      </c>
+      <c r="I10" s="13" t="str">
+        <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
+        <v>800 x 460 px</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>191</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="13" t="e">
-        <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G10" s="13" t="e">
-        <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="13" t="e">
-        <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="13" t="e">
-        <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>192</v>
       </c>
       <c r="K10" s="64"/>
       <c r="O10" s="2" t="str">
@@ -3146,28 +3146,30 @@
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>190</v>
+      </c>
       <c r="E11" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="13" t="e">
+        <v>152</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G11" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG02n.jpg</v>
+      </c>
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="13" t="e">
+        <v>240 x 185 px</v>
+      </c>
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I11" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG02a.jpg</v>
+      </c>
+      <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K11" s="64"/>
       <c r="O11" s="2" t="str">
@@ -3187,28 +3189,30 @@
         <f t="shared" si="0"/>
         <v>Recurso F13</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
       <c r="E12" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="13" t="e">
+        <v>152</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG03n.jpg</v>
+      </c>
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="13" t="e">
+        <v>240 x 185 px</v>
+      </c>
+      <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG03a.jpg</v>
+      </c>
+      <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3229,29 +3233,29 @@
         <v>Recurso F13</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="13" t="e">
+        <v>152</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG04n.jpg</v>
+      </c>
+      <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="13" t="e">
+        <v>240 x 185 px</v>
+      </c>
+      <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="13" t="e">
+        <v>MA_08_08_CO_REC140_IMG04a.jpg</v>
+      </c>
+      <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>#N/A</v>
+        <v>800 x 460 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
